--- a/data/offers.xlsx
+++ b/data/offers.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -506,7 +506,7 @@
         <v>23.25</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="3">
@@ -536,7 +536,7 @@
         <v>22.2</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="4">
@@ -566,7 +566,7 @@
         <v>10.25</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +596,7 @@
         <v>22.5</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="6">
@@ -626,7 +626,7 @@
         <v>22.4</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         <v>22.4</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="8">
@@ -686,7 +686,7 @@
         <v>15.1</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="9">
@@ -716,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="10">
@@ -746,7 +746,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="11">
@@ -774,7 +774,7 @@
         <v>21.9</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="12">
@@ -802,7 +802,7 @@
         <v>20.17</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="13">
@@ -830,7 +830,7 @@
         <v>22.5</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="14">
@@ -858,7 +858,7 @@
         <v>20.5</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="15">
@@ -886,7 +886,7 @@
         <v>21</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="16">
@@ -916,7 +916,7 @@
         <v>16.41</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="17">
@@ -946,7 +946,7 @@
         <v>20.01</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="18">
@@ -974,7 +974,7 @@
         <v>18</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="19">
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="20">
@@ -1032,7 +1032,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="21">
@@ -1060,7 +1060,7 @@
         <v>23</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="22">
@@ -1090,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="23">
@@ -1118,7 +1118,7 @@
         <v>22.6</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="24">
@@ -1146,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>11.8</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="26">
@@ -1206,7 +1206,7 @@
         <v>10.6</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="27">
@@ -1234,7 +1234,7 @@
         <v>22.32</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="28">
@@ -1262,7 +1262,7 @@
         <v>24</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="29">
@@ -1290,7 +1290,7 @@
         <v>21.98</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="30">
@@ -1318,7 +1318,7 @@
         <v>23</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="31">
@@ -1346,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="32">
@@ -1374,7 +1374,7 @@
         <v>14.2</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="33">
@@ -1402,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="34">
@@ -1430,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="35">
@@ -1458,7 +1458,7 @@
         <v>3.5</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="36">
@@ -1486,7 +1486,7 @@
         <v>24.5</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="37">
@@ -1514,7 +1514,7 @@
         <v>24</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="38">
@@ -1542,7 +1542,7 @@
         <v>21.72</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="39">
@@ -1570,7 +1570,7 @@
         <v>23.35</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="40">
@@ -1598,7 +1598,7 @@
         <v>22.6</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="41">
@@ -1626,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="42">
@@ -1654,7 +1654,7 @@
         <v>23.12</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="43">
@@ -1684,7 +1684,7 @@
         <v>21.79</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="44">
@@ -1712,7 +1712,7 @@
         <v>11</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="45">
@@ -1740,7 +1740,7 @@
         <v>22.7</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="46">
@@ -1768,7 +1768,7 @@
         <v>22</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         <v>21</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="48">
@@ -1824,7 +1824,7 @@
         <v>19.91</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="49">
@@ -1852,7 +1852,7 @@
         <v>18</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="50">
@@ -1880,7 +1880,7 @@
         <v>2.6</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="51">
@@ -1910,7 +1910,7 @@
         <v>23</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="52">
@@ -1940,7 +1940,7 @@
         <v>21.25</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="53">
@@ -1970,7 +1970,7 @@
         <v>20.5</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="54">
@@ -2000,7 +2000,7 @@
         <v>17.75</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="55">
@@ -2028,7 +2028,7 @@
         <v>12.2</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="56">
@@ -2056,7 +2056,7 @@
         <v>11.95</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="57">
@@ -2086,7 +2086,7 @@
         <v>12.13</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="58">
@@ -2114,7 +2114,7 @@
         <v>11.3</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="59">
@@ -2142,7 +2142,7 @@
         <v>22</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="60">
@@ -2170,7 +2170,7 @@
         <v>21.01</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="61">
@@ -2198,7 +2198,7 @@
         <v>16.82</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="62">
@@ -2226,7 +2226,7 @@
         <v>15.5</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="63">
@@ -2254,7 +2254,7 @@
         <v>8.25</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="64">
@@ -2282,7 +2282,7 @@
         <v>19.69</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="65">
@@ -2310,7 +2310,7 @@
         <v>19.6</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="66">
@@ -2340,7 +2340,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="67">
@@ -2370,7 +2370,7 @@
         <v>14.8</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="68">
@@ -2400,7 +2400,7 @@
         <v>14.5</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="69">
@@ -2430,7 +2430,7 @@
         <v>14.3</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="70">
@@ -2460,7 +2460,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="71">
@@ -2490,7 +2490,7 @@
         <v>6.2</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="72">
@@ -2518,7 +2518,7 @@
         <v>9.5</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="73">
@@ -2546,7 +2546,7 @@
         <v>9.4</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="74">
@@ -2574,7 +2574,7 @@
         <v>21.37</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="75">
@@ -2602,7 +2602,7 @@
         <v>8.68</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="76">
@@ -2630,7 +2630,7 @@
         <v>15.5</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="77">
@@ -2658,7 +2658,7 @@
         <v>7.76</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="78">
@@ -2688,7 +2688,7 @@
         <v>18.72</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="79">
@@ -2716,7 +2716,7 @@
         <v>12.2</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="80">
@@ -2744,7 +2744,7 @@
         <v>9.75</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="81">
@@ -2774,7 +2774,7 @@
         <v>23.5</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="82">
@@ -2804,7 +2804,7 @@
         <v>21.2</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="83">
@@ -2832,7 +2832,7 @@
         <v>19</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="84">
@@ -2860,7 +2860,7 @@
         <v>16</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="85">
@@ -2888,7 +2888,7 @@
         <v>20.1</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="86">
@@ -2918,7 +2918,7 @@
         <v>12.6</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="87">
@@ -2948,7 +2948,7 @@
         <v>9.4</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="88">
@@ -2978,7 +2978,7 @@
         <v>8.4</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="89">
@@ -3008,7 +3008,7 @@
         <v>20</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="90">
@@ -3036,7 +3036,7 @@
         <v>19.3</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="91">
@@ -3064,7 +3064,7 @@
         <v>19.3</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="92">
@@ -3092,7 +3092,7 @@
         <v>17.4</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="93">
@@ -3120,7 +3120,7 @@
         <v>15.5</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="94">
@@ -3150,7 +3150,7 @@
         <v>13.85</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="95">
@@ -3178,7 +3178,7 @@
         <v>23.8</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="96">
@@ -3206,7 +3206,7 @@
         <v>23.1</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="97">
@@ -3234,7 +3234,7 @@
         <v>23.65</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="98">
@@ -3262,7 +3262,7 @@
         <v>22.96</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="99">
@@ -3290,7 +3290,7 @@
         <v>17</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="100">
@@ -3318,7 +3318,7 @@
         <v>16.94</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="101">
@@ -3346,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="102">
@@ -3374,7 +3374,7 @@
         <v>14.5</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="103">
@@ -3402,7 +3402,7 @@
         <v>14.46</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="104">
@@ -3430,7 +3430,7 @@
         <v>24</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="105">
@@ -3458,7 +3458,7 @@
         <v>24.19</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="106">
@@ -3486,7 +3486,7 @@
         <v>17.5</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="107">
@@ -3514,7 +3514,7 @@
         <v>17.4</v>
       </c>
       <c r="H107" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="108">
@@ -3542,7 +3542,7 @@
         <v>15.76</v>
       </c>
       <c r="H108" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="109">
@@ -3570,7 +3570,7 @@
         <v>5</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="110">
@@ -3598,7 +3598,7 @@
         <v>24</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="111">
@@ -3626,7 +3626,7 @@
         <v>21</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="112">
@@ -3654,7 +3654,7 @@
         <v>19</v>
       </c>
       <c r="H112" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="113">
@@ -3682,7 +3682,7 @@
         <v>16.6</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="114">
@@ -3710,7 +3710,7 @@
         <v>10</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="115">
@@ -3738,7 +3738,7 @@
         <v>10</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="116">
@@ -3766,7 +3766,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="H116" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="117">
@@ -3796,7 +3796,7 @@
         <v>24.5</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="118">
@@ -3824,7 +3824,7 @@
         <v>23.1</v>
       </c>
       <c r="H118" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="119">
@@ -3852,7 +3852,7 @@
         <v>22</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="120">
@@ -3880,7 +3880,7 @@
         <v>20.5</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="121">
@@ -3908,7 +3908,7 @@
         <v>18.75</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="122">
@@ -3936,7 +3936,7 @@
         <v>4.85</v>
       </c>
       <c r="H122" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="123">
@@ -3966,7 +3966,7 @@
         <v>23.5</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="124">
@@ -3996,7 +3996,7 @@
         <v>23.5</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="125">
@@ -4026,7 +4026,7 @@
         <v>23.5</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="126">
@@ -4056,7 +4056,7 @@
         <v>23.8</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="127">
@@ -4086,7 +4086,7 @@
         <v>23.8</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="128">
@@ -4116,7 +4116,7 @@
         <v>23.1</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="129">
@@ -4146,7 +4146,7 @@
         <v>23.1</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="130">
@@ -4176,7 +4176,7 @@
         <v>23</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="131">
@@ -4206,7 +4206,7 @@
         <v>15.5</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="132">
@@ -4236,7 +4236,7 @@
         <v>20.2</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="133">
@@ -4266,7 +4266,7 @@
         <v>20</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="134">
@@ -4296,7 +4296,7 @@
         <v>19.8</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="135">
@@ -4326,7 +4326,7 @@
         <v>19.5</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="136">
@@ -4356,7 +4356,7 @@
         <v>19.5</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="137">
@@ -4386,7 +4386,7 @@
         <v>19.6</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="138">
@@ -4416,7 +4416,7 @@
         <v>19</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="139">
@@ -4444,7 +4444,7 @@
         <v>25</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="140">
@@ -4472,7 +4472,7 @@
         <v>23.15</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="141">
@@ -4500,7 +4500,7 @@
         <v>22.5</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="142">
@@ -4528,7 +4528,7 @@
         <v>18</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="143">
@@ -4556,7 +4556,7 @@
         <v>13</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="144">
@@ -4584,7 +4584,7 @@
         <v>13</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="145">
@@ -4614,7 +4614,7 @@
         <v>23</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="146">
@@ -4642,7 +4642,7 @@
         <v>21</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="147">
@@ -4670,7 +4670,7 @@
         <v>20.6</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="148">
@@ -4698,7 +4698,7 @@
         <v>15</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="149">
@@ -4726,7 +4726,7 @@
         <v>12.1</v>
       </c>
       <c r="H149" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="150">
@@ -4754,7 +4754,7 @@
         <v>17.88</v>
       </c>
       <c r="H150" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="151">
@@ -4784,7 +4784,7 @@
         <v>21</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="152">
@@ -4812,7 +4812,7 @@
         <v>15.5</v>
       </c>
       <c r="H152" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="153">
@@ -4840,7 +4840,7 @@
         <v>8.15</v>
       </c>
       <c r="H153" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="154">
@@ -4868,7 +4868,7 @@
         <v>8</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="155">
@@ -4896,7 +4896,7 @@
         <v>11.39</v>
       </c>
       <c r="H155" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="156">
@@ -4924,7 +4924,7 @@
         <v>7.07</v>
       </c>
       <c r="H156" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="157">
@@ -4952,7 +4952,7 @@
         <v>7.94</v>
       </c>
       <c r="H157" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="158">
@@ -4980,7 +4980,7 @@
         <v>22</v>
       </c>
       <c r="H158" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="159">
@@ -5008,7 +5008,7 @@
         <v>7.09</v>
       </c>
       <c r="H159" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="160">
@@ -5036,7 +5036,7 @@
         <v>6.32</v>
       </c>
       <c r="H160" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="161">
@@ -5064,7 +5064,7 @@
         <v>20</v>
       </c>
       <c r="H161" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="162">
@@ -5092,7 +5092,7 @@
         <v>5.62</v>
       </c>
       <c r="H162" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="163">
@@ -5120,7 +5120,7 @@
         <v>19</v>
       </c>
       <c r="H163" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="164">
@@ -5148,7 +5148,7 @@
         <v>5.3</v>
       </c>
       <c r="H164" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="165">
@@ -5176,7 +5176,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="H165" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="166">
@@ -5204,7 +5204,7 @@
         <v>16</v>
       </c>
       <c r="H166" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="167">
@@ -5232,7 +5232,7 @@
         <v>23</v>
       </c>
       <c r="H167" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="168">
@@ -5260,7 +5260,7 @@
         <v>23</v>
       </c>
       <c r="H168" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="169">
@@ -5288,7 +5288,7 @@
         <v>22</v>
       </c>
       <c r="H169" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="170">
@@ -5316,7 +5316,7 @@
         <v>21</v>
       </c>
       <c r="H170" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="171">
@@ -5344,7 +5344,7 @@
         <v>18.5</v>
       </c>
       <c r="H171" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="172">
@@ -5372,7 +5372,7 @@
         <v>18.69</v>
       </c>
       <c r="H172" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="173">
@@ -5400,7 +5400,7 @@
         <v>22.7</v>
       </c>
       <c r="H173" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="174">
@@ -5428,7 +5428,7 @@
         <v>20.9</v>
       </c>
       <c r="H174" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="175">
@@ -5456,7 +5456,7 @@
         <v>20.5</v>
       </c>
       <c r="H175" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="176">
@@ -5484,7 +5484,7 @@
         <v>16</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="177">
@@ -5512,7 +5512,7 @@
         <v>15</v>
       </c>
       <c r="H177" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="178">
@@ -5540,7 +5540,7 @@
         <v>14</v>
       </c>
       <c r="H178" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="179">
@@ -5568,7 +5568,7 @@
         <v>7.9</v>
       </c>
       <c r="H179" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="180">
@@ -5598,7 +5598,7 @@
         <v>22.5</v>
       </c>
       <c r="H180" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="181">
@@ -5628,7 +5628,7 @@
         <v>20.14</v>
       </c>
       <c r="H181" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="182">
@@ -5658,7 +5658,7 @@
         <v>20</v>
       </c>
       <c r="H182" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="183">
@@ -5688,7 +5688,7 @@
         <v>16.82</v>
       </c>
       <c r="H183" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="184">
@@ -5718,7 +5718,7 @@
         <v>19</v>
       </c>
       <c r="H184" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="185">
@@ -5748,7 +5748,7 @@
         <v>18.75</v>
       </c>
       <c r="H185" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="186">
@@ -5778,7 +5778,7 @@
         <v>18</v>
       </c>
       <c r="H186" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="187">
@@ -5808,7 +5808,7 @@
         <v>17.5</v>
       </c>
       <c r="H187" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="188">
@@ -5838,7 +5838,7 @@
         <v>15.5</v>
       </c>
       <c r="H188" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="189">
@@ -5868,7 +5868,7 @@
         <v>14</v>
       </c>
       <c r="H189" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="190">
@@ -5898,7 +5898,7 @@
         <v>14</v>
       </c>
       <c r="H190" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="191">
@@ -5928,7 +5928,7 @@
         <v>12</v>
       </c>
       <c r="H191" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="192">
@@ -5956,7 +5956,7 @@
         <v>3</v>
       </c>
       <c r="H192" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="193">
@@ -5984,7 +5984,7 @@
         <v>24.5</v>
       </c>
       <c r="H193" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="194">
@@ -6012,7 +6012,7 @@
         <v>22.5</v>
       </c>
       <c r="H194" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="195">
@@ -6040,7 +6040,7 @@
         <v>18</v>
       </c>
       <c r="H195" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="196">
@@ -6068,7 +6068,7 @@
         <v>13</v>
       </c>
       <c r="H196" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="197">
@@ -6096,7 +6096,7 @@
         <v>13</v>
       </c>
       <c r="H197" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="198">
@@ -6126,7 +6126,7 @@
         <v>23.5</v>
       </c>
       <c r="H198" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="199">
@@ -6156,7 +6156,7 @@
         <v>23</v>
       </c>
       <c r="H199" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="200">
@@ -6186,7 +6186,7 @@
         <v>23</v>
       </c>
       <c r="H200" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="201">
@@ -6216,7 +6216,7 @@
         <v>17.31</v>
       </c>
       <c r="H201" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="202">
@@ -6244,7 +6244,7 @@
         <v>22.7</v>
       </c>
       <c r="H202" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="203">
@@ -6274,7 +6274,7 @@
         <v>22.65</v>
       </c>
       <c r="H203" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="204">
@@ -6304,7 +6304,7 @@
         <v>22.5</v>
       </c>
       <c r="H204" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="205">
@@ -6332,7 +6332,7 @@
         <v>21.5</v>
       </c>
       <c r="H205" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="206">
@@ -6362,7 +6362,7 @@
         <v>17</v>
       </c>
       <c r="H206" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="207">
@@ -6390,7 +6390,7 @@
         <v>22.9</v>
       </c>
       <c r="H207" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="208">
@@ -6418,7 +6418,7 @@
         <v>20.5</v>
       </c>
       <c r="H208" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="209">
@@ -6446,7 +6446,7 @@
         <v>17.5</v>
       </c>
       <c r="H209" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="210">
@@ -6474,7 +6474,7 @@
         <v>24.1</v>
       </c>
       <c r="H210" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="211">
@@ -6502,7 +6502,7 @@
         <v>22.22</v>
       </c>
       <c r="H211" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="212">
@@ -6530,7 +6530,7 @@
         <v>21.6</v>
       </c>
       <c r="H212" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="213">
@@ -6558,7 +6558,7 @@
         <v>18.9</v>
       </c>
       <c r="H213" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="214">
@@ -6586,7 +6586,7 @@
         <v>10.5</v>
       </c>
       <c r="H214" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="215">
@@ -6614,7 +6614,7 @@
         <v>19.65</v>
       </c>
       <c r="H215" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="216">
@@ -6642,7 +6642,7 @@
         <v>10.86</v>
       </c>
       <c r="H216" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="217">
@@ -6670,7 +6670,7 @@
         <v>10.97</v>
       </c>
       <c r="H217" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="218">
@@ -6698,7 +6698,7 @@
         <v>19.16</v>
       </c>
       <c r="H218" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="219">
@@ -6726,7 +6726,7 @@
         <v>20.59</v>
       </c>
       <c r="H219" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="220">
@@ -6754,7 +6754,7 @@
         <v>24.8</v>
       </c>
       <c r="H220" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="221">
@@ -6784,7 +6784,7 @@
         <v>24.5</v>
       </c>
       <c r="H221" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="222">
@@ -6812,7 +6812,7 @@
         <v>23.31</v>
       </c>
       <c r="H222" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="223">
@@ -6840,7 +6840,7 @@
         <v>19.2</v>
       </c>
       <c r="H223" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="224">
@@ -6868,7 +6868,7 @@
         <v>18.46</v>
       </c>
       <c r="H224" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="225">
@@ -6898,7 +6898,7 @@
         <v>18.47</v>
       </c>
       <c r="H225" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="226">
@@ -6928,7 +6928,7 @@
         <v>12.46</v>
       </c>
       <c r="H226" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="227">
@@ -6956,7 +6956,7 @@
         <v>21</v>
       </c>
       <c r="H227" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="228">
@@ -6984,7 +6984,7 @@
         <v>15.5</v>
       </c>
       <c r="H228" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="229">
@@ -7012,7 +7012,7 @@
         <v>15</v>
       </c>
       <c r="H229" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="230">
@@ -7040,7 +7040,7 @@
         <v>24</v>
       </c>
       <c r="H230" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="231">
@@ -7068,7 +7068,7 @@
         <v>21</v>
       </c>
       <c r="H231" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="232">
@@ -7096,7 +7096,7 @@
         <v>20.95</v>
       </c>
       <c r="H232" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="233">
@@ -7124,7 +7124,7 @@
         <v>20.1</v>
       </c>
       <c r="H233" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="234">
@@ -7152,7 +7152,7 @@
         <v>20.96</v>
       </c>
       <c r="H234" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="235">
@@ -7182,7 +7182,7 @@
         <v>20</v>
       </c>
       <c r="H235" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="236">
@@ -7210,7 +7210,7 @@
         <v>18</v>
       </c>
       <c r="H236" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="237">
@@ -7238,7 +7238,7 @@
         <v>7.83</v>
       </c>
       <c r="H237" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="238">
@@ -7266,7 +7266,7 @@
         <v>6.7</v>
       </c>
       <c r="H238" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="239">
@@ -7296,7 +7296,7 @@
         <v>6.7</v>
       </c>
       <c r="H239" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="240">
@@ -7326,7 +7326,7 @@
         <v>6.7</v>
       </c>
       <c r="H240" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="241">
@@ -7354,7 +7354,7 @@
         <v>6.5</v>
       </c>
       <c r="H241" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="242">
@@ -7384,7 +7384,7 @@
         <v>6.5</v>
       </c>
       <c r="H242" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="243">
@@ -7414,7 +7414,7 @@
         <v>6.2</v>
       </c>
       <c r="H243" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="244">
@@ -7444,7 +7444,7 @@
         <v>4</v>
       </c>
       <c r="H244" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="245">
@@ -7474,7 +7474,7 @@
         <v>24</v>
       </c>
       <c r="H245" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="246">
@@ -7504,7 +7504,7 @@
         <v>23.5</v>
       </c>
       <c r="H246" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="247">
@@ -7534,7 +7534,7 @@
         <v>22.6</v>
       </c>
       <c r="H247" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="248">
@@ -7564,7 +7564,7 @@
         <v>19</v>
       </c>
       <c r="H248" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="249">
@@ -7594,7 +7594,7 @@
         <v>14</v>
       </c>
       <c r="H249" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="250">
@@ -7624,7 +7624,7 @@
         <v>10</v>
       </c>
       <c r="H250" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="251">
@@ -7652,7 +7652,7 @@
         <v>4.7</v>
       </c>
       <c r="H251" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="252">
@@ -7680,7 +7680,7 @@
         <v>3.7</v>
       </c>
       <c r="H252" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="253">
@@ -7708,7 +7708,7 @@
         <v>23</v>
       </c>
       <c r="H253" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="254">
@@ -7736,7 +7736,7 @@
         <v>14.1</v>
       </c>
       <c r="H254" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="255">
@@ -7764,7 +7764,7 @@
         <v>7</v>
       </c>
       <c r="H255" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="256">
@@ -7792,7 +7792,7 @@
         <v>21.5</v>
       </c>
       <c r="H256" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="257">
@@ -7820,7 +7820,7 @@
         <v>21.5</v>
       </c>
       <c r="H257" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="258">
@@ -7848,7 +7848,7 @@
         <v>21</v>
       </c>
       <c r="H258" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="259">
@@ -7876,7 +7876,7 @@
         <v>18.5</v>
       </c>
       <c r="H259" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="260">
@@ -7904,7 +7904,7 @@
         <v>15.5</v>
       </c>
       <c r="H260" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="261">
@@ -7932,7 +7932,7 @@
         <v>23.8</v>
       </c>
       <c r="H261" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="262">
@@ -7960,7 +7960,7 @@
         <v>23.6</v>
       </c>
       <c r="H262" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="263">
@@ -7988,7 +7988,7 @@
         <v>23.6</v>
       </c>
       <c r="H263" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="264">
@@ -8016,7 +8016,7 @@
         <v>23.1</v>
       </c>
       <c r="H264" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="265">
@@ -8044,7 +8044,7 @@
         <v>15.11</v>
       </c>
       <c r="H265" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="266">
@@ -8072,7 +8072,7 @@
         <v>23.67</v>
       </c>
       <c r="H266" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="267">
@@ -8100,7 +8100,7 @@
         <v>20.5</v>
       </c>
       <c r="H267" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="268">
@@ -8128,7 +8128,7 @@
         <v>20.5</v>
       </c>
       <c r="H268" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="269">
@@ -8156,7 +8156,7 @@
         <v>20.4</v>
       </c>
       <c r="H269" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="270">
@@ -8184,7 +8184,7 @@
         <v>21.57</v>
       </c>
       <c r="H270" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="271">
@@ -8214,7 +8214,7 @@
         <v>17</v>
       </c>
       <c r="H271" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="272">
@@ -8242,7 +8242,7 @@
         <v>17.93</v>
       </c>
       <c r="H272" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="273">
@@ -8270,7 +8270,7 @@
         <v>15.57</v>
       </c>
       <c r="H273" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="274">
@@ -8298,7 +8298,7 @@
         <v>23</v>
       </c>
       <c r="H274" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="275">
@@ -8326,7 +8326,7 @@
         <v>18.2</v>
       </c>
       <c r="H275" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="276">
@@ -8356,7 +8356,7 @@
         <v>17.5</v>
       </c>
       <c r="H276" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="277">
@@ -8384,7 +8384,7 @@
         <v>16.18</v>
       </c>
       <c r="H277" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="278">
@@ -8412,7 +8412,7 @@
         <v>6</v>
       </c>
       <c r="H278" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="279">
@@ -8442,7 +8442,7 @@
         <v>23.25</v>
       </c>
       <c r="H279" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="280">
@@ -8470,7 +8470,7 @@
         <v>23</v>
       </c>
       <c r="H280" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="281">
@@ -8498,7 +8498,7 @@
         <v>23</v>
       </c>
       <c r="H281" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="282">
@@ -8526,7 +8526,7 @@
         <v>21</v>
       </c>
       <c r="H282" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="283">
@@ -8556,7 +8556,7 @@
         <v>18</v>
       </c>
       <c r="H283" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="284">
@@ -8584,7 +8584,7 @@
         <v>23.3</v>
       </c>
       <c r="H284" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="285">
@@ -8612,7 +8612,7 @@
         <v>15.16</v>
       </c>
       <c r="H285" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="286">
@@ -8640,7 +8640,7 @@
         <v>23.12</v>
       </c>
       <c r="H286" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="287">
@@ -8668,7 +8668,7 @@
         <v>12.39</v>
       </c>
       <c r="H287" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="288">
@@ -8696,7 +8696,7 @@
         <v>18.65</v>
       </c>
       <c r="H288" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="289">
@@ -8724,7 +8724,7 @@
         <v>16.1</v>
       </c>
       <c r="H289" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="290">
@@ -8752,7 +8752,7 @@
         <v>13.6</v>
       </c>
       <c r="H290" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="291">
@@ -8780,7 +8780,7 @@
         <v>21.3</v>
       </c>
       <c r="H291" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="292">
@@ -8808,7 +8808,7 @@
         <v>18</v>
       </c>
       <c r="H292" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="293">
@@ -8836,7 +8836,7 @@
         <v>17.2</v>
       </c>
       <c r="H293" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="294">
@@ -8864,7 +8864,7 @@
         <v>13.4</v>
       </c>
       <c r="H294" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="295">
@@ -8894,7 +8894,7 @@
         <v>21.5</v>
       </c>
       <c r="H295" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="296">
@@ -8922,7 +8922,7 @@
         <v>19.5</v>
       </c>
       <c r="H296" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="297">
@@ -8950,7 +8950,7 @@
         <v>19</v>
       </c>
       <c r="H297" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="298">
@@ -8980,7 +8980,7 @@
         <v>18.5</v>
       </c>
       <c r="H298" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="299">
@@ -9008,7 +9008,7 @@
         <v>17</v>
       </c>
       <c r="H299" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="300">
@@ -9038,7 +9038,7 @@
         <v>16</v>
       </c>
       <c r="H300" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="301">
@@ -9068,7 +9068,7 @@
         <v>22.75</v>
       </c>
       <c r="H301" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="302">
@@ -9096,7 +9096,7 @@
         <v>15.53</v>
       </c>
       <c r="H302" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="303">
@@ -9126,7 +9126,7 @@
         <v>20.25</v>
       </c>
       <c r="H303" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="304">
@@ -9156,7 +9156,7 @@
         <v>19.5</v>
       </c>
       <c r="H304" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="305">
@@ -9186,7 +9186,7 @@
         <v>18</v>
       </c>
       <c r="H305" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="306">
@@ -9216,7 +9216,7 @@
         <v>23</v>
       </c>
       <c r="H306" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="307">
@@ -9244,7 +9244,7 @@
         <v>21.55</v>
       </c>
       <c r="H307" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="308">
@@ -9272,7 +9272,7 @@
         <v>20.5</v>
       </c>
       <c r="H308" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="309">
@@ -9300,7 +9300,7 @@
         <v>20</v>
       </c>
       <c r="H309" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="310">
@@ -9330,7 +9330,7 @@
         <v>19.5</v>
       </c>
       <c r="H310" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="311">
@@ -9358,7 +9358,7 @@
         <v>17.85</v>
       </c>
       <c r="H311" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="312">
@@ -9386,7 +9386,7 @@
         <v>16.5</v>
       </c>
       <c r="H312" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="313">
@@ -9414,7 +9414,7 @@
         <v>16</v>
       </c>
       <c r="H313" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="314">
@@ -9442,7 +9442,7 @@
         <v>15.5</v>
       </c>
       <c r="H314" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="315">
@@ -9470,7 +9470,7 @@
         <v>10</v>
       </c>
       <c r="H315" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="316">
@@ -9498,7 +9498,7 @@
         <v>8</v>
       </c>
       <c r="H316" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="317">
@@ -9526,7 +9526,7 @@
         <v>7.5</v>
       </c>
       <c r="H317" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="318">
@@ -9554,7 +9554,7 @@
         <v>22.55</v>
       </c>
       <c r="H318" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="319">
@@ -9582,7 +9582,7 @@
         <v>21</v>
       </c>
       <c r="H319" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="320">
@@ -9610,7 +9610,7 @@
         <v>19</v>
       </c>
       <c r="H320" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="321">
@@ -9638,7 +9638,7 @@
         <v>17</v>
       </c>
       <c r="H321" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="322">
@@ -9666,7 +9666,7 @@
         <v>17</v>
       </c>
       <c r="H322" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="323">
@@ -9694,7 +9694,7 @@
         <v>10</v>
       </c>
       <c r="H323" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="324">
@@ -9722,7 +9722,7 @@
         <v>21.2</v>
       </c>
       <c r="H324" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="325">
@@ -9750,7 +9750,7 @@
         <v>21</v>
       </c>
       <c r="H325" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="326">
@@ -9778,7 +9778,7 @@
         <v>20</v>
       </c>
       <c r="H326" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="327">
@@ -9806,7 +9806,7 @@
         <v>18.1</v>
       </c>
       <c r="H327" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="328">
@@ -9834,7 +9834,7 @@
         <v>18</v>
       </c>
       <c r="H328" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="329">
@@ -9862,7 +9862,7 @@
         <v>17.9</v>
       </c>
       <c r="H329" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="330">
@@ -9890,7 +9890,7 @@
         <v>18.2</v>
       </c>
       <c r="H330" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="331">
@@ -9918,7 +9918,7 @@
         <v>20</v>
       </c>
       <c r="H331" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="332">
@@ -9948,7 +9948,7 @@
         <v>6.96</v>
       </c>
       <c r="H332" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="333">
@@ -9976,7 +9976,7 @@
         <v>22</v>
       </c>
       <c r="H333" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="334">
@@ -10004,7 +10004,7 @@
         <v>21</v>
       </c>
       <c r="H334" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="335">
@@ -10032,7 +10032,7 @@
         <v>21</v>
       </c>
       <c r="H335" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="336">
@@ -10060,7 +10060,7 @@
         <v>21</v>
       </c>
       <c r="H336" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="337">
@@ -10088,7 +10088,7 @@
         <v>21</v>
       </c>
       <c r="H337" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="338">
@@ -10116,7 +10116,7 @@
         <v>18.5</v>
       </c>
       <c r="H338" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="339">
@@ -10144,7 +10144,7 @@
         <v>22.5</v>
       </c>
       <c r="H339" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="340">
@@ -10172,7 +10172,7 @@
         <v>23.02</v>
       </c>
       <c r="H340" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="341">
@@ -10200,7 +10200,7 @@
         <v>22.54</v>
       </c>
       <c r="H341" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="342">
@@ -10228,7 +10228,7 @@
         <v>19.3</v>
       </c>
       <c r="H342" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="343">
@@ -10256,7 +10256,7 @@
         <v>18</v>
       </c>
       <c r="H343" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="344">
@@ -10284,7 +10284,7 @@
         <v>17.44</v>
       </c>
       <c r="H344" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="345">
@@ -10312,7 +10312,7 @@
         <v>16.5</v>
       </c>
       <c r="H345" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="346">
@@ -10340,7 +10340,7 @@
         <v>15.84</v>
       </c>
       <c r="H346" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="347">
@@ -10368,7 +10368,7 @@
         <v>12</v>
       </c>
       <c r="H347" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="348">
@@ -10396,7 +10396,7 @@
         <v>8.5</v>
       </c>
       <c r="H348" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="349">
@@ -10424,7 +10424,7 @@
         <v>21.5</v>
       </c>
       <c r="H349" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="350">
@@ -10454,7 +10454,7 @@
         <v>21</v>
       </c>
       <c r="H350" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="351">
@@ -10482,7 +10482,7 @@
         <v>20.25</v>
       </c>
       <c r="H351" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="352">
@@ -10510,7 +10510,7 @@
         <v>20</v>
       </c>
       <c r="H352" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="353">
@@ -10538,7 +10538,7 @@
         <v>19.14</v>
       </c>
       <c r="H353" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="354">
@@ -10566,7 +10566,7 @@
         <v>17.3</v>
       </c>
       <c r="H354" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="355">
@@ -10594,7 +10594,7 @@
         <v>6.5</v>
       </c>
       <c r="H355" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="356">
@@ -10622,7 +10622,7 @@
         <v>20.77</v>
       </c>
       <c r="H356" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="357">
@@ -10650,7 +10650,7 @@
         <v>18.6</v>
       </c>
       <c r="H357" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="358">
@@ -10678,7 +10678,7 @@
         <v>18.6</v>
       </c>
       <c r="H358" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="359">
@@ -10706,7 +10706,7 @@
         <v>17</v>
       </c>
       <c r="H359" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="360">
@@ -10734,7 +10734,7 @@
         <v>15</v>
       </c>
       <c r="H360" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="361">
@@ -10762,7 +10762,7 @@
         <v>18.79</v>
       </c>
       <c r="H361" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="362">
@@ -10790,7 +10790,7 @@
         <v>22.44</v>
       </c>
       <c r="H362" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="363">
@@ -10820,7 +10820,7 @@
         <v>21</v>
       </c>
       <c r="H363" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="364">
@@ -10848,7 +10848,7 @@
         <v>17.14</v>
       </c>
       <c r="H364" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="365">
@@ -10876,7 +10876,7 @@
         <v>19</v>
       </c>
       <c r="H365" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="366">
@@ -10906,7 +10906,7 @@
         <v>18</v>
       </c>
       <c r="H366" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="367">
@@ -10936,7 +10936,7 @@
         <v>18</v>
       </c>
       <c r="H367" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="368">
@@ -10964,7 +10964,7 @@
         <v>16.5</v>
       </c>
       <c r="H368" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="369">
@@ -10992,7 +10992,7 @@
         <v>12</v>
       </c>
       <c r="H369" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="370">
@@ -11022,7 +11022,7 @@
         <v>10.75</v>
       </c>
       <c r="H370" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="371">
@@ -11050,7 +11050,7 @@
         <v>22.5</v>
       </c>
       <c r="H371" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="372">
@@ -11078,7 +11078,7 @@
         <v>21.93</v>
       </c>
       <c r="H372" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="373">
@@ -11106,7 +11106,7 @@
         <v>17</v>
       </c>
       <c r="H373" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="374">
@@ -11134,7 +11134,7 @@
         <v>16.5</v>
       </c>
       <c r="H374" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="375">
@@ -11162,7 +11162,7 @@
         <v>25</v>
       </c>
       <c r="H375" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="376">
@@ -11190,7 +11190,7 @@
         <v>22.7</v>
       </c>
       <c r="H376" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="377">
@@ -11218,7 +11218,7 @@
         <v>22.6</v>
       </c>
       <c r="H377" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="378">
@@ -11246,7 +11246,7 @@
         <v>20.2</v>
       </c>
       <c r="H378" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="379">
@@ -11274,7 +11274,7 @@
         <v>20.2</v>
       </c>
       <c r="H379" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="380">
@@ -11302,7 +11302,7 @@
         <v>20</v>
       </c>
       <c r="H380" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="381">
@@ -11330,7 +11330,7 @@
         <v>12.2</v>
       </c>
       <c r="H381" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="382">
@@ -11360,7 +11360,7 @@
         <v>19.5</v>
       </c>
       <c r="H382" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="383">
@@ -11390,7 +11390,7 @@
         <v>19</v>
       </c>
       <c r="H383" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="384">
@@ -11420,7 +11420,7 @@
         <v>11.82</v>
       </c>
       <c r="H384" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="385">
@@ -11448,7 +11448,7 @@
         <v>22.4</v>
       </c>
       <c r="H385" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="386">
@@ -11476,7 +11476,7 @@
         <v>22.2</v>
       </c>
       <c r="H386" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="387">
@@ -11504,7 +11504,7 @@
         <v>21.5</v>
       </c>
       <c r="H387" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="388">
@@ -11532,7 +11532,7 @@
         <v>19.5</v>
       </c>
       <c r="H388" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="389">
@@ -11560,7 +11560,7 @@
         <v>18.3</v>
       </c>
       <c r="H389" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="390">
@@ -11588,7 +11588,7 @@
         <v>17.5</v>
       </c>
       <c r="H390" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="391">
@@ -11616,7 +11616,7 @@
         <v>15.5</v>
       </c>
       <c r="H391" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="392">
@@ -11646,7 +11646,7 @@
         <v>22.5</v>
       </c>
       <c r="H392" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="393">
@@ -11676,7 +11676,7 @@
         <v>22.5</v>
       </c>
       <c r="H393" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="394">
@@ -11706,7 +11706,7 @@
         <v>10.47</v>
       </c>
       <c r="H394" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="395">
@@ -11734,7 +11734,7 @@
         <v>18</v>
       </c>
       <c r="H395" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="396">
@@ -11764,7 +11764,7 @@
         <v>11.36</v>
       </c>
       <c r="H396" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="397">
@@ -11794,7 +11794,7 @@
         <v>7.05</v>
       </c>
       <c r="H397" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="398">
@@ -11824,7 +11824,7 @@
         <v>7.52</v>
       </c>
       <c r="H398" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="399">
@@ -11852,7 +11852,7 @@
         <v>6.73</v>
       </c>
       <c r="H399" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="400">
@@ -11880,7 +11880,7 @@
         <v>7.25</v>
       </c>
       <c r="H400" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="401">
@@ -11910,7 +11910,7 @@
         <v>14</v>
       </c>
       <c r="H401" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="402">
@@ -11938,7 +11938,7 @@
         <v>6.5</v>
       </c>
       <c r="H402" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="403">
@@ -11966,7 +11966,7 @@
         <v>6.38</v>
       </c>
       <c r="H403" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="404">
@@ -11996,7 +11996,7 @@
         <v>15.75</v>
       </c>
       <c r="H404" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="405">
@@ -12024,7 +12024,7 @@
         <v>15.25</v>
       </c>
       <c r="H405" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="406">
@@ -12052,7 +12052,7 @@
         <v>14.05</v>
       </c>
       <c r="H406" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="407">
@@ -12080,7 +12080,7 @@
         <v>13.85</v>
       </c>
       <c r="H407" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="408">
@@ -12110,7 +12110,7 @@
         <v>12.52</v>
       </c>
       <c r="H408" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="409">
@@ -12138,7 +12138,7 @@
         <v>22.45</v>
       </c>
       <c r="H409" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="410">
@@ -12166,7 +12166,7 @@
         <v>21.35</v>
       </c>
       <c r="H410" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="411">
@@ -12194,7 +12194,7 @@
         <v>21.15</v>
       </c>
       <c r="H411" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="412">
@@ -12222,7 +12222,7 @@
         <v>20</v>
       </c>
       <c r="H412" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="413">
@@ -12250,7 +12250,7 @@
         <v>20</v>
       </c>
       <c r="H413" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="414">
@@ -12278,7 +12278,7 @@
         <v>9.5</v>
       </c>
       <c r="H414" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="415">
@@ -12306,7 +12306,7 @@
         <v>6</v>
       </c>
       <c r="H415" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="416">
@@ -12336,7 +12336,7 @@
         <v>22</v>
       </c>
       <c r="H416" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="417">
@@ -12364,7 +12364,7 @@
         <v>22</v>
       </c>
       <c r="H417" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="418">
@@ -12394,7 +12394,7 @@
         <v>24.05</v>
       </c>
       <c r="H418" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="419">
@@ -12424,7 +12424,7 @@
         <v>21.35</v>
       </c>
       <c r="H419" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="420">
@@ -12454,7 +12454,7 @@
         <v>20.5</v>
       </c>
       <c r="H420" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="421">
@@ -12484,7 +12484,7 @@
         <v>25.07</v>
       </c>
       <c r="H421" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="422">
@@ -12514,7 +12514,7 @@
         <v>18</v>
       </c>
       <c r="H422" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="423">
@@ -12542,7 +12542,7 @@
         <v>22</v>
       </c>
       <c r="H423" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="424">
@@ -12570,7 +12570,7 @@
         <v>22</v>
       </c>
       <c r="H424" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="425">
@@ -12598,7 +12598,7 @@
         <v>21</v>
       </c>
       <c r="H425" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="426">
@@ -12626,7 +12626,7 @@
         <v>20.5</v>
       </c>
       <c r="H426" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="427">
@@ -12654,7 +12654,7 @@
         <v>23.62</v>
       </c>
       <c r="H427" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="428">
@@ -12684,7 +12684,7 @@
         <v>15.5</v>
       </c>
       <c r="H428" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="429">
@@ -12712,7 +12712,7 @@
         <v>21</v>
       </c>
       <c r="H429" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="430">
@@ -12740,7 +12740,7 @@
         <v>21</v>
       </c>
       <c r="H430" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="431">
@@ -12768,7 +12768,7 @@
         <v>20.64</v>
       </c>
       <c r="H431" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="432">
@@ -12796,7 +12796,7 @@
         <v>20</v>
       </c>
       <c r="H432" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="433">
@@ -12824,7 +12824,7 @@
         <v>19.37</v>
       </c>
       <c r="H433" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="434">
@@ -12852,7 +12852,7 @@
         <v>19.25</v>
       </c>
       <c r="H434" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="435">
@@ -12880,7 +12880,7 @@
         <v>18.51</v>
       </c>
       <c r="H435" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="436">
@@ -12910,7 +12910,7 @@
         <v>22</v>
       </c>
       <c r="H436" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="437">
@@ -12938,7 +12938,7 @@
         <v>21.92</v>
       </c>
       <c r="H437" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="438">
@@ -12966,7 +12966,7 @@
         <v>21.5</v>
       </c>
       <c r="H438" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="439">
@@ -12994,7 +12994,7 @@
         <v>21.42</v>
       </c>
       <c r="H439" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="440">
@@ -13022,7 +13022,7 @@
         <v>19</v>
       </c>
       <c r="H440" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="441">
@@ -13050,7 +13050,7 @@
         <v>18.29</v>
       </c>
       <c r="H441" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="442">
@@ -13078,7 +13078,7 @@
         <v>11</v>
       </c>
       <c r="H442" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="443">
@@ -13106,7 +13106,7 @@
         <v>10.9</v>
       </c>
       <c r="H443" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="444">
@@ -13134,7 +13134,7 @@
         <v>22.25</v>
       </c>
       <c r="H444" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="445">
@@ -13164,7 +13164,7 @@
         <v>21.5</v>
       </c>
       <c r="H445" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="446">
@@ -13194,7 +13194,7 @@
         <v>19</v>
       </c>
       <c r="H446" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="447">
@@ -13222,7 +13222,7 @@
         <v>23.5</v>
       </c>
       <c r="H447" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="448">
@@ -13250,7 +13250,7 @@
         <v>23.5</v>
       </c>
       <c r="H448" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="449">
@@ -13280,7 +13280,7 @@
         <v>15.75</v>
       </c>
       <c r="H449" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="450">
@@ -13310,7 +13310,7 @@
         <v>22</v>
       </c>
       <c r="H450" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="451">
@@ -13340,7 +13340,7 @@
         <v>22</v>
       </c>
       <c r="H451" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="452">
@@ -13370,7 +13370,7 @@
         <v>10.47</v>
       </c>
       <c r="H452" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="453">
@@ -13398,7 +13398,7 @@
         <v>18</v>
       </c>
       <c r="H453" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="454">
@@ -13428,7 +13428,7 @@
         <v>11.36</v>
       </c>
       <c r="H454" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="455">
@@ -13456,7 +13456,7 @@
         <v>7.18</v>
       </c>
       <c r="H455" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="456">
@@ -13484,7 +13484,7 @@
         <v>7.54</v>
       </c>
       <c r="H456" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="457">
@@ -13512,7 +13512,7 @@
         <v>6.73</v>
       </c>
       <c r="H457" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="458">
@@ -13540,7 +13540,7 @@
         <v>7.25</v>
       </c>
       <c r="H458" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="459">
@@ -13570,7 +13570,7 @@
         <v>14</v>
       </c>
       <c r="H459" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="460">
@@ -13598,7 +13598,7 @@
         <v>6.5</v>
       </c>
       <c r="H460" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="461">
@@ -13626,7 +13626,7 @@
         <v>6.38</v>
       </c>
       <c r="H461" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="462">
@@ -13654,7 +13654,7 @@
         <v>20.9</v>
       </c>
       <c r="H462" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="463">
@@ -13682,7 +13682,7 @@
         <v>20.35</v>
       </c>
       <c r="H463" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="464">
@@ -13710,7 +13710,7 @@
         <v>18.55</v>
       </c>
       <c r="H464" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="465">
@@ -13740,7 +13740,7 @@
         <v>7.4</v>
       </c>
       <c r="H465" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="466">
@@ -13768,7 +13768,7 @@
         <v>21.9</v>
       </c>
       <c r="H466" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="467">
@@ -13796,7 +13796,7 @@
         <v>21</v>
       </c>
       <c r="H467" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="468">
@@ -13824,7 +13824,7 @@
         <v>20</v>
       </c>
       <c r="H468" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="469">
@@ -13852,7 +13852,7 @@
         <v>20</v>
       </c>
       <c r="H469" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="470">
@@ -13880,7 +13880,7 @@
         <v>19</v>
       </c>
       <c r="H470" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="471">
@@ -13908,7 +13908,7 @@
         <v>16</v>
       </c>
       <c r="H471" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="472">
@@ -13936,7 +13936,7 @@
         <v>21.35</v>
       </c>
       <c r="H472" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="473">
@@ -13964,7 +13964,7 @@
         <v>20.6</v>
       </c>
       <c r="H473" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="474">
@@ -13992,7 +13992,7 @@
         <v>19.25</v>
       </c>
       <c r="H474" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="475">
@@ -14022,7 +14022,7 @@
         <v>16</v>
       </c>
       <c r="H475" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="476">
@@ -14052,7 +14052,7 @@
         <v>16</v>
       </c>
       <c r="H476" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="477">
@@ -14080,7 +14080,7 @@
         <v>16</v>
       </c>
       <c r="H477" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="478">
@@ -14108,7 +14108,7 @@
         <v>21</v>
       </c>
       <c r="H478" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="479">
@@ -14136,7 +14136,7 @@
         <v>20.9</v>
       </c>
       <c r="H479" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="480">
@@ -14164,7 +14164,7 @@
         <v>12.73</v>
       </c>
       <c r="H480" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="481">
@@ -14192,7 +14192,7 @@
         <v>11</v>
       </c>
       <c r="H481" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="482">
@@ -14220,7 +14220,7 @@
         <v>22</v>
       </c>
       <c r="H482" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="483">
@@ -14248,7 +14248,7 @@
         <v>19.23</v>
       </c>
       <c r="H483" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="484">
@@ -14276,7 +14276,7 @@
         <v>18.5</v>
       </c>
       <c r="H484" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="485">
@@ -14304,7 +14304,7 @@
         <v>13.02</v>
       </c>
       <c r="H485" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="486">
@@ -14332,7 +14332,7 @@
         <v>12.79</v>
       </c>
       <c r="H486" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="487">
@@ -14362,7 +14362,7 @@
         <v>12.51</v>
       </c>
       <c r="H487" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="488">
@@ -14392,7 +14392,7 @@
         <v>10</v>
       </c>
       <c r="H488" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="489">
@@ -14422,7 +14422,7 @@
         <v>10</v>
       </c>
       <c r="H489" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="490">
@@ -14450,7 +14450,7 @@
         <v>21</v>
       </c>
       <c r="H490" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="491">
@@ -14478,7 +14478,7 @@
         <v>11.77</v>
       </c>
       <c r="H491" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="492">
@@ -14506,7 +14506,7 @@
         <v>17</v>
       </c>
       <c r="H492" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="493">
@@ -14534,7 +14534,7 @@
         <v>15</v>
       </c>
       <c r="H493" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="494">
@@ -14562,7 +14562,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="H494" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="495">
@@ -14590,7 +14590,7 @@
         <v>15</v>
       </c>
       <c r="H495" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="496">
@@ -14618,7 +14618,7 @@
         <v>15.87</v>
       </c>
       <c r="H496" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="497">
@@ -14646,7 +14646,7 @@
         <v>15.87</v>
       </c>
       <c r="H497" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="498">
@@ -14674,7 +14674,7 @@
         <v>10</v>
       </c>
       <c r="H498" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="499">
@@ -14702,7 +14702,7 @@
         <v>10</v>
       </c>
       <c r="H499" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="500">
@@ -14730,7 +14730,7 @@
         <v>21.2</v>
       </c>
       <c r="H500" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="501">
@@ -14758,7 +14758,7 @@
         <v>21</v>
       </c>
       <c r="H501" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="502">
@@ -14786,7 +14786,7 @@
         <v>19.6</v>
       </c>
       <c r="H502" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="503">
@@ -14816,7 +14816,7 @@
         <v>19.15</v>
       </c>
       <c r="H503" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="504">
@@ -14844,7 +14844,7 @@
         <v>16.8</v>
       </c>
       <c r="H504" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="505">
@@ -14872,7 +14872,7 @@
         <v>14</v>
       </c>
       <c r="H505" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="506">
@@ -14900,7 +14900,7 @@
         <v>13</v>
       </c>
       <c r="H506" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="507">
@@ -14930,7 +14930,7 @@
         <v>21</v>
       </c>
       <c r="H507" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="508">
@@ -14960,7 +14960,7 @@
         <v>20</v>
       </c>
       <c r="H508" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="509">
@@ -14990,7 +14990,7 @@
         <v>19.82</v>
       </c>
       <c r="H509" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="510">
@@ -15020,7 +15020,7 @@
         <v>19.31</v>
       </c>
       <c r="H510" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="511">
@@ -15050,7 +15050,7 @@
         <v>18.28</v>
       </c>
       <c r="H511" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="512">
@@ -15078,7 +15078,7 @@
         <v>18</v>
       </c>
       <c r="H512" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="513">
@@ -15106,7 +15106,7 @@
         <v>17</v>
       </c>
       <c r="H513" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="514">
@@ -15134,7 +15134,7 @@
         <v>17</v>
       </c>
       <c r="H514" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="515">
@@ -15162,7 +15162,7 @@
         <v>20.55</v>
       </c>
       <c r="H515" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="516">
@@ -15190,7 +15190,7 @@
         <v>15.65</v>
       </c>
       <c r="H516" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="517">
@@ -15218,7 +15218,7 @@
         <v>20.8</v>
       </c>
       <c r="H517" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="518">
@@ -15246,7 +15246,7 @@
         <v>20.8</v>
       </c>
       <c r="H518" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="519">
@@ -15274,7 +15274,7 @@
         <v>20.5</v>
       </c>
       <c r="H519" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="520">
@@ -15302,7 +15302,7 @@
         <v>20.05</v>
       </c>
       <c r="H520" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="521">
@@ -15330,7 +15330,7 @@
         <v>20</v>
       </c>
       <c r="H521" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="522">
@@ -15358,7 +15358,7 @@
         <v>18.9</v>
       </c>
       <c r="H522" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="523">
@@ -15386,7 +15386,7 @@
         <v>15.5</v>
       </c>
       <c r="H523" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="524">
@@ -15414,7 +15414,7 @@
         <v>5.9</v>
       </c>
       <c r="H524" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="525">
@@ -15442,7 +15442,7 @@
         <v>20.05</v>
       </c>
       <c r="H525" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="526">
@@ -15470,7 +15470,7 @@
         <v>19.05</v>
       </c>
       <c r="H526" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="527">
@@ -15498,7 +15498,7 @@
         <v>15</v>
       </c>
       <c r="H527" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="528">
@@ -15526,7 +15526,7 @@
         <v>15</v>
       </c>
       <c r="H528" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="529">
@@ -15554,7 +15554,7 @@
         <v>9</v>
       </c>
       <c r="H529" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="530">
@@ -15582,7 +15582,7 @@
         <v>8</v>
       </c>
       <c r="H530" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="531">
@@ -15610,7 +15610,7 @@
         <v>5.5</v>
       </c>
       <c r="H531" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="532">
@@ -15638,7 +15638,7 @@
         <v>20.04</v>
       </c>
       <c r="H532" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="533">
@@ -15666,7 +15666,7 @@
         <v>19</v>
       </c>
       <c r="H533" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="534">
@@ -15694,7 +15694,7 @@
         <v>18.5</v>
       </c>
       <c r="H534" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="535">
@@ -15722,7 +15722,7 @@
         <v>18.25</v>
       </c>
       <c r="H535" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="536">
@@ -15750,7 +15750,7 @@
         <v>18</v>
       </c>
       <c r="H536" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="537">
@@ -15778,7 +15778,7 @@
         <v>18</v>
       </c>
       <c r="H537" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="538">
@@ -15806,7 +15806,7 @@
         <v>16</v>
       </c>
       <c r="H538" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="539">
@@ -15834,7 +15834,7 @@
         <v>15</v>
       </c>
       <c r="H539" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="540">
@@ -15862,7 +15862,7 @@
         <v>20.6</v>
       </c>
       <c r="H540" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="541">
@@ -15890,7 +15890,7 @@
         <v>20.96</v>
       </c>
       <c r="H541" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="542">
@@ -15918,7 +15918,7 @@
         <v>20.1</v>
       </c>
       <c r="H542" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="543">
@@ -15946,7 +15946,7 @@
         <v>9</v>
       </c>
       <c r="H543" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="544">
@@ -15974,7 +15974,7 @@
         <v>4.5</v>
       </c>
       <c r="H544" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="545">
@@ -16002,7 +16002,7 @@
         <v>3.5</v>
       </c>
       <c r="H545" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="546">
@@ -16030,7 +16030,7 @@
         <v>21</v>
       </c>
       <c r="H546" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="547">
@@ -16058,7 +16058,7 @@
         <v>18</v>
       </c>
       <c r="H547" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="548">
@@ -16086,7 +16086,7 @@
         <v>5.7</v>
       </c>
       <c r="H548" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="549">
@@ -16114,7 +16114,7 @@
         <v>20</v>
       </c>
       <c r="H549" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="550">
@@ -16142,7 +16142,7 @@
         <v>19.5</v>
       </c>
       <c r="H550" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="551">
@@ -16170,7 +16170,7 @@
         <v>19</v>
       </c>
       <c r="H551" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="552">
@@ -16198,7 +16198,7 @@
         <v>18.5</v>
       </c>
       <c r="H552" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="553">
@@ -16226,7 +16226,7 @@
         <v>14.38</v>
       </c>
       <c r="H553" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="554">
@@ -16254,7 +16254,7 @@
         <v>6.5</v>
       </c>
       <c r="H554" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="555">
@@ -16284,7 +16284,7 @@
         <v>21</v>
       </c>
       <c r="H555" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="556">
@@ -16312,7 +16312,7 @@
         <v>21</v>
       </c>
       <c r="H556" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="557">
@@ -16342,7 +16342,7 @@
         <v>20</v>
       </c>
       <c r="H557" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="558">
@@ -16372,7 +16372,7 @@
         <v>20</v>
       </c>
       <c r="H558" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="559">
@@ -16400,7 +16400,7 @@
         <v>20</v>
       </c>
       <c r="H559" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="560">
@@ -16428,7 +16428,7 @@
         <v>19.5</v>
       </c>
       <c r="H560" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="561">
@@ -16458,7 +16458,7 @@
         <v>18.5</v>
       </c>
       <c r="H561" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="562">
@@ -16486,7 +16486,7 @@
         <v>16</v>
       </c>
       <c r="H562" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="563">
@@ -16514,7 +16514,7 @@
         <v>23.28</v>
       </c>
       <c r="H563" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="564">
@@ -16544,7 +16544,7 @@
         <v>21.4</v>
       </c>
       <c r="H564" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="565">
@@ -16572,7 +16572,7 @@
         <v>23.09</v>
       </c>
       <c r="H565" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="566">
@@ -16600,7 +16600,7 @@
         <v>21</v>
       </c>
       <c r="H566" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="567">
@@ -16628,7 +16628,7 @@
         <v>21</v>
       </c>
       <c r="H567" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="568">
@@ -16656,7 +16656,7 @@
         <v>21</v>
       </c>
       <c r="H568" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="569">
@@ -16684,7 +16684,7 @@
         <v>17</v>
       </c>
       <c r="H569" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="570">
@@ -16712,7 +16712,7 @@
         <v>19.7</v>
       </c>
       <c r="H570" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="571">
@@ -16740,7 +16740,7 @@
         <v>19.1</v>
       </c>
       <c r="H571" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="572">
@@ -16768,7 +16768,7 @@
         <v>18.5</v>
       </c>
       <c r="H572" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="573">
@@ -16796,7 +16796,7 @@
         <v>13</v>
       </c>
       <c r="H573" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="574">
@@ -16826,7 +16826,7 @@
         <v>19</v>
       </c>
       <c r="H574" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="575">
@@ -16856,7 +16856,7 @@
         <v>6.5</v>
       </c>
       <c r="H575" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="576">
@@ -16886,7 +16886,7 @@
         <v>5</v>
       </c>
       <c r="H576" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="577">
@@ -16916,7 +16916,7 @@
         <v>4.5</v>
       </c>
       <c r="H577" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="578">
@@ -16944,7 +16944,7 @@
         <v>1.51</v>
       </c>
       <c r="H578" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="579">
@@ -16972,7 +16972,7 @@
         <v>20</v>
       </c>
       <c r="H579" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="580">
@@ -17000,7 +17000,7 @@
         <v>12.5</v>
       </c>
       <c r="H580" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="581">
@@ -17028,7 +17028,7 @@
         <v>12.1</v>
       </c>
       <c r="H581" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="582">
@@ -17056,7 +17056,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="H582" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="583">
@@ -17084,7 +17084,7 @@
         <v>3.5</v>
       </c>
       <c r="H583" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="584">
@@ -17112,7 +17112,7 @@
         <v>3.5</v>
       </c>
       <c r="H584" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="585">
@@ -17140,7 +17140,7 @@
         <v>1.9</v>
       </c>
       <c r="H585" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="586">
@@ -17168,7 +17168,7 @@
         <v>19</v>
       </c>
       <c r="H586" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="587">
@@ -17196,7 +17196,7 @@
         <v>20.16</v>
       </c>
       <c r="H587" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="588">
@@ -17224,7 +17224,7 @@
         <v>3.8</v>
       </c>
       <c r="H588" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="589">
@@ -17252,7 +17252,7 @@
         <v>4.5</v>
       </c>
       <c r="H589" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="590">
@@ -17280,7 +17280,7 @@
         <v>4.5</v>
       </c>
       <c r="H590" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="591">
@@ -17308,7 +17308,7 @@
         <v>3</v>
       </c>
       <c r="H591" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="592">
@@ -17336,7 +17336,7 @@
         <v>20.5</v>
       </c>
       <c r="H592" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="593">
@@ -17364,7 +17364,7 @@
         <v>18</v>
       </c>
       <c r="H593" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="594">
@@ -17392,7 +17392,7 @@
         <v>18</v>
       </c>
       <c r="H594" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="595">
@@ -17420,7 +17420,7 @@
         <v>16.07</v>
       </c>
       <c r="H595" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="596">
@@ -17448,7 +17448,7 @@
         <v>18.25</v>
       </c>
       <c r="H596" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="597">
@@ -17476,7 +17476,7 @@
         <v>18</v>
       </c>
       <c r="H597" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="598">
@@ -17504,7 +17504,7 @@
         <v>16</v>
       </c>
       <c r="H598" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="599">
@@ -17532,7 +17532,7 @@
         <v>15</v>
       </c>
       <c r="H599" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="600">
@@ -17560,7 +17560,7 @@
         <v>15</v>
       </c>
       <c r="H600" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="601">
@@ -17588,7 +17588,7 @@
         <v>22.25</v>
       </c>
       <c r="H601" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="602">
@@ -17616,7 +17616,7 @@
         <v>20</v>
       </c>
       <c r="H602" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="603">
@@ -17644,7 +17644,7 @@
         <v>19.25</v>
       </c>
       <c r="H603" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="604">
@@ -17672,7 +17672,7 @@
         <v>19.25</v>
       </c>
       <c r="H604" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="605">
@@ -17700,7 +17700,7 @@
         <v>19.49</v>
       </c>
       <c r="H605" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="606">
@@ -17728,7 +17728,7 @@
         <v>19</v>
       </c>
       <c r="H606" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="607">
@@ -17756,7 +17756,7 @@
         <v>18.75</v>
       </c>
       <c r="H607" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="608">
@@ -17784,7 +17784,7 @@
         <v>17</v>
       </c>
       <c r="H608" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="609">
@@ -17812,7 +17812,7 @@
         <v>23</v>
       </c>
       <c r="H609" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="610">
@@ -17840,7 +17840,7 @@
         <v>19.5</v>
       </c>
       <c r="H610" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="611">
@@ -17868,7 +17868,7 @@
         <v>2</v>
       </c>
       <c r="H611" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="612">
@@ -17896,7 +17896,7 @@
         <v>18</v>
       </c>
       <c r="H612" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="613">
@@ -17924,7 +17924,7 @@
         <v>18</v>
       </c>
       <c r="H613" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="614">
@@ -17952,7 +17952,7 @@
         <v>17</v>
       </c>
       <c r="H614" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="615">
@@ -17980,7 +17980,7 @@
         <v>10</v>
       </c>
       <c r="H615" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="616">
@@ -18008,7 +18008,7 @@
         <v>22.5</v>
       </c>
       <c r="H616" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="617">
@@ -18038,7 +18038,7 @@
         <v>16</v>
       </c>
       <c r="H617" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="618">
@@ -18068,7 +18068,7 @@
         <v>15</v>
       </c>
       <c r="H618" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="619">
@@ -18096,7 +18096,7 @@
         <v>20.6</v>
       </c>
       <c r="H619" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="620">
@@ -18124,7 +18124,7 @@
         <v>17.7</v>
       </c>
       <c r="H620" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="621">
@@ -18152,7 +18152,7 @@
         <v>17.55</v>
       </c>
       <c r="H621" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="622">
@@ -18180,7 +18180,7 @@
         <v>17.3</v>
       </c>
       <c r="H622" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="623">
@@ -18208,7 +18208,7 @@
         <v>16.6</v>
       </c>
       <c r="H623" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="624">
@@ -18236,7 +18236,7 @@
         <v>20.34</v>
       </c>
       <c r="H624" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="625">
@@ -18264,7 +18264,7 @@
         <v>20</v>
       </c>
       <c r="H625" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="626">
@@ -18292,7 +18292,7 @@
         <v>19.63</v>
       </c>
       <c r="H626" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="627">
@@ -18320,7 +18320,7 @@
         <v>19</v>
       </c>
       <c r="H627" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="628">
@@ -18348,7 +18348,7 @@
         <v>18</v>
       </c>
       <c r="H628" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="629">
@@ -18376,7 +18376,7 @@
         <v>18</v>
       </c>
       <c r="H629" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="630">
@@ -18404,7 +18404,7 @@
         <v>16</v>
       </c>
       <c r="H630" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="631">
@@ -18432,7 +18432,7 @@
         <v>12</v>
       </c>
       <c r="H631" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="632">
@@ -18460,7 +18460,7 @@
         <v>12</v>
       </c>
       <c r="H632" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="633">
@@ -18488,7 +18488,7 @@
         <v>19.9</v>
       </c>
       <c r="H633" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="634">
@@ -18516,7 +18516,7 @@
         <v>19.5</v>
       </c>
       <c r="H634" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="635">
@@ -18544,7 +18544,7 @@
         <v>16.9</v>
       </c>
       <c r="H635" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="636">
@@ -18574,7 +18574,7 @@
         <v>15</v>
       </c>
       <c r="H636" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="637">
@@ -18602,7 +18602,7 @@
         <v>7.5</v>
       </c>
       <c r="H637" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="638">
@@ -18632,7 +18632,7 @@
         <v>23</v>
       </c>
       <c r="H638" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="639">
@@ -18662,7 +18662,7 @@
         <v>21</v>
       </c>
       <c r="H639" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="640">
@@ -18692,7 +18692,7 @@
         <v>21.07</v>
       </c>
       <c r="H640" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="641">
@@ -18722,7 +18722,7 @@
         <v>19.82</v>
       </c>
       <c r="H641" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="642">
@@ -18752,7 +18752,7 @@
         <v>18.25</v>
       </c>
       <c r="H642" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="643">
@@ -18782,7 +18782,7 @@
         <v>18.02</v>
       </c>
       <c r="H643" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="644">
@@ -18812,7 +18812,7 @@
         <v>14</v>
       </c>
       <c r="H644" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="645">
@@ -18840,7 +18840,7 @@
         <v>19.8</v>
       </c>
       <c r="H645" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="646">
@@ -18868,7 +18868,7 @@
         <v>19.7</v>
       </c>
       <c r="H646" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="647">
@@ -18896,7 +18896,7 @@
         <v>19.5</v>
       </c>
       <c r="H647" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="648">
@@ -18924,7 +18924,7 @@
         <v>19.3</v>
       </c>
       <c r="H648" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="649">
@@ -18952,7 +18952,7 @@
         <v>19.2</v>
       </c>
       <c r="H649" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="650">
@@ -18980,7 +18980,7 @@
         <v>18.8</v>
       </c>
       <c r="H650" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="651">
@@ -19008,7 +19008,7 @@
         <v>18.5</v>
       </c>
       <c r="H651" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="652">
@@ -19036,7 +19036,7 @@
         <v>18.2</v>
       </c>
       <c r="H652" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="653">
@@ -19064,7 +19064,7 @@
         <v>18.2</v>
       </c>
       <c r="H653" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="654">
@@ -19092,7 +19092,7 @@
         <v>18</v>
       </c>
       <c r="H654" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="655">
@@ -19120,7 +19120,7 @@
         <v>17.9</v>
       </c>
       <c r="H655" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="656">
@@ -19148,7 +19148,7 @@
         <v>17</v>
       </c>
       <c r="H656" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="657">
@@ -19176,7 +19176,7 @@
         <v>19.25</v>
       </c>
       <c r="H657" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="658">
@@ -19204,7 +19204,7 @@
         <v>18.5</v>
       </c>
       <c r="H658" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="659">
@@ -19232,7 +19232,7 @@
         <v>19</v>
       </c>
       <c r="H659" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="660">
@@ -19260,7 +19260,7 @@
         <v>19.9</v>
       </c>
       <c r="H660" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="661">
@@ -19288,7 +19288,7 @@
         <v>19.75</v>
       </c>
       <c r="H661" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="662">
@@ -19316,7 +19316,7 @@
         <v>19.75</v>
       </c>
       <c r="H662" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="663">
@@ -19344,7 +19344,7 @@
         <v>19.5</v>
       </c>
       <c r="H663" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="664">
@@ -19372,7 +19372,7 @@
         <v>19.15</v>
       </c>
       <c r="H664" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="665">
@@ -19400,7 +19400,7 @@
         <v>18.9</v>
       </c>
       <c r="H665" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="666">
@@ -19430,7 +19430,7 @@
         <v>19</v>
       </c>
       <c r="H666" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="667">
@@ -19460,7 +19460,7 @@
         <v>16.5</v>
       </c>
       <c r="H667" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="668">
@@ -19490,7 +19490,7 @@
         <v>13.5</v>
       </c>
       <c r="H668" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="669">
@@ -19518,7 +19518,7 @@
         <v>3.5</v>
       </c>
       <c r="H669" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="670">
@@ -19546,7 +19546,7 @@
         <v>7.6</v>
       </c>
       <c r="H670" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="671">
@@ -19574,7 +19574,7 @@
         <v>19.5</v>
       </c>
       <c r="H671" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="672">
@@ -19602,7 +19602,7 @@
         <v>18.7</v>
       </c>
       <c r="H672" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="673">
@@ -19632,7 +19632,7 @@
         <v>18.5</v>
       </c>
       <c r="H673" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="674">
@@ -19660,7 +19660,7 @@
         <v>19.75</v>
       </c>
       <c r="H674" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="675">
@@ -19690,7 +19690,7 @@
         <v>18</v>
       </c>
       <c r="H675" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="676">
@@ -19718,7 +19718,7 @@
         <v>17.5</v>
       </c>
       <c r="H676" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="677">
@@ -19746,7 +19746,7 @@
         <v>14.75</v>
       </c>
       <c r="H677" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="678">
@@ -19774,7 +19774,7 @@
         <v>14.35</v>
       </c>
       <c r="H678" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="679">
@@ -19802,7 +19802,7 @@
         <v>12.7</v>
       </c>
       <c r="H679" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="680">
@@ -19830,7 +19830,7 @@
         <v>19.5</v>
       </c>
       <c r="H680" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="681">
@@ -19858,7 +19858,7 @@
         <v>19.25</v>
       </c>
       <c r="H681" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="682">
@@ -19886,7 +19886,7 @@
         <v>19.25</v>
       </c>
       <c r="H682" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="683">
@@ -19914,7 +19914,7 @@
         <v>19</v>
       </c>
       <c r="H683" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="684">
@@ -19942,7 +19942,7 @@
         <v>19</v>
       </c>
       <c r="H684" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="685">
@@ -19972,7 +19972,7 @@
         <v>14</v>
       </c>
       <c r="H685" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="686">
@@ -20000,7 +20000,7 @@
         <v>5</v>
       </c>
       <c r="H686" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="687">
@@ -20028,7 +20028,7 @@
         <v>18.25</v>
       </c>
       <c r="H687" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="688">
@@ -20056,7 +20056,7 @@
         <v>18</v>
       </c>
       <c r="H688" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="689">
@@ -20086,7 +20086,7 @@
         <v>17.5</v>
       </c>
       <c r="H689" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="690">
@@ -20114,7 +20114,7 @@
         <v>2.25</v>
       </c>
       <c r="H690" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="691">
@@ -20144,7 +20144,7 @@
         <v>2.1</v>
       </c>
       <c r="H691" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="692">
@@ -20172,7 +20172,7 @@
         <v>18.56</v>
       </c>
       <c r="H692" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="693">
@@ -20200,7 +20200,7 @@
         <v>18</v>
       </c>
       <c r="H693" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="694">
@@ -20228,7 +20228,7 @@
         <v>6.5</v>
       </c>
       <c r="H694" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="695">
@@ -20256,7 +20256,7 @@
         <v>6.3</v>
       </c>
       <c r="H695" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="696">
@@ -20284,7 +20284,7 @@
         <v>6.3</v>
       </c>
       <c r="H696" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="697">
@@ -20312,7 +20312,7 @@
         <v>6</v>
       </c>
       <c r="H697" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="698">
@@ -20340,7 +20340,7 @@
         <v>5.7</v>
       </c>
       <c r="H698" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="699">
@@ -20368,7 +20368,7 @@
         <v>5.6</v>
       </c>
       <c r="H699" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="700">
@@ -20396,7 +20396,7 @@
         <v>5</v>
       </c>
       <c r="H700" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="701">
@@ -20424,7 +20424,7 @@
         <v>3</v>
       </c>
       <c r="H701" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="702">
@@ -20452,7 +20452,7 @@
         <v>23.8</v>
       </c>
       <c r="H702" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="703">
@@ -20480,7 +20480,7 @@
         <v>14.1</v>
       </c>
       <c r="H703" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="704">
@@ -20508,7 +20508,7 @@
         <v>13.1</v>
       </c>
       <c r="H704" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="705">
@@ -20536,7 +20536,7 @@
         <v>18</v>
       </c>
       <c r="H705" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="706">
@@ -20564,7 +20564,7 @@
         <v>18</v>
       </c>
       <c r="H706" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="707">
@@ -20592,7 +20592,7 @@
         <v>12.5</v>
       </c>
       <c r="H707" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="708">
@@ -20620,7 +20620,7 @@
         <v>10</v>
       </c>
       <c r="H708" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="709">
@@ -20648,7 +20648,7 @@
         <v>10</v>
       </c>
       <c r="H709" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="710">
@@ -20676,7 +20676,7 @@
         <v>9</v>
       </c>
       <c r="H710" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="711">
@@ -20704,7 +20704,7 @@
         <v>18.5</v>
       </c>
       <c r="H711" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="712">
@@ -20734,7 +20734,7 @@
         <v>22.45</v>
       </c>
       <c r="H712" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="713">
@@ -20764,7 +20764,7 @@
         <v>20</v>
       </c>
       <c r="H713" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="714">
@@ -20794,7 +20794,7 @@
         <v>18.3</v>
       </c>
       <c r="H714" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="715">
@@ -20822,7 +20822,7 @@
         <v>5</v>
       </c>
       <c r="H715" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="716">
@@ -20850,7 +20850,7 @@
         <v>13.25</v>
       </c>
       <c r="H716" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="717">
@@ -20878,7 +20878,7 @@
         <v>13</v>
       </c>
       <c r="H717" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="718">
@@ -20908,7 +20908,7 @@
         <v>12</v>
       </c>
       <c r="H718" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="719">
@@ -20936,7 +20936,7 @@
         <v>18</v>
       </c>
       <c r="H719" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="720">
@@ -20966,7 +20966,7 @@
         <v>17.25</v>
       </c>
       <c r="H720" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="721">
@@ -20994,7 +20994,7 @@
         <v>16.5</v>
       </c>
       <c r="H721" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="722">
@@ -21022,7 +21022,7 @@
         <v>15.5</v>
       </c>
       <c r="H722" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="723">
@@ -21050,7 +21050,7 @@
         <v>15</v>
       </c>
       <c r="H723" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="724">
@@ -21078,7 +21078,7 @@
         <v>13</v>
       </c>
       <c r="H724" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="725">
@@ -21106,7 +21106,7 @@
         <v>18</v>
       </c>
       <c r="H725" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="726">
@@ -21134,7 +21134,7 @@
         <v>16.5</v>
       </c>
       <c r="H726" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="727">
@@ -21162,7 +21162,7 @@
         <v>16</v>
       </c>
       <c r="H727" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="728">
@@ -21190,7 +21190,7 @@
         <v>15</v>
       </c>
       <c r="H728" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="729">
@@ -21218,7 +21218,7 @@
         <v>18</v>
       </c>
       <c r="H729" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="730">
@@ -21246,7 +21246,7 @@
         <v>17</v>
       </c>
       <c r="H730" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="731">
@@ -21274,7 +21274,7 @@
         <v>17</v>
       </c>
       <c r="H731" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="732">
@@ -21302,7 +21302,7 @@
         <v>9.5</v>
       </c>
       <c r="H732" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="733">
@@ -21330,7 +21330,7 @@
         <v>18</v>
       </c>
       <c r="H733" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="734">
@@ -21358,7 +21358,7 @@
         <v>11.35</v>
       </c>
       <c r="H734" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="735">
@@ -21386,7 +21386,7 @@
         <v>11.15</v>
       </c>
       <c r="H735" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="736">
@@ -21414,7 +21414,7 @@
         <v>18.13</v>
       </c>
       <c r="H736" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="737">
@@ -21442,7 +21442,7 @@
         <v>16.65</v>
       </c>
       <c r="H737" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="738">
@@ -21470,7 +21470,7 @@
         <v>15.5</v>
       </c>
       <c r="H738" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="739">
@@ -21498,7 +21498,7 @@
         <v>17.5</v>
       </c>
       <c r="H739" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="740">
@@ -21526,7 +21526,7 @@
         <v>16.5</v>
       </c>
       <c r="H740" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="741">
@@ -21554,7 +21554,7 @@
         <v>16.5</v>
       </c>
       <c r="H741" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="742">
@@ -21582,7 +21582,7 @@
         <v>18.1</v>
       </c>
       <c r="H742" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="743">
@@ -21610,7 +21610,7 @@
         <v>16.31</v>
       </c>
       <c r="H743" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="744">
@@ -21638,7 +21638,7 @@
         <v>15.29</v>
       </c>
       <c r="H744" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="745">
@@ -21666,7 +21666,7 @@
         <v>14.26</v>
       </c>
       <c r="H745" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="746">
@@ -21694,7 +21694,7 @@
         <v>14</v>
       </c>
       <c r="H746" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="747">
@@ -21722,7 +21722,7 @@
         <v>14</v>
       </c>
       <c r="H747" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="748">
@@ -21750,7 +21750,7 @@
         <v>14</v>
       </c>
       <c r="H748" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="749">
@@ -21778,7 +21778,7 @@
         <v>8</v>
       </c>
       <c r="H749" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="750">
@@ -21806,7 +21806,7 @@
         <v>7.75</v>
       </c>
       <c r="H750" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="751">
@@ -21834,7 +21834,7 @@
         <v>7.25</v>
       </c>
       <c r="H751" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="752">
@@ -21862,7 +21862,7 @@
         <v>7</v>
       </c>
       <c r="H752" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="753">
@@ -21890,7 +21890,7 @@
         <v>5.5</v>
       </c>
       <c r="H753" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="754">
@@ -21918,7 +21918,7 @@
         <v>4.5</v>
       </c>
       <c r="H754" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="755">
@@ -21946,7 +21946,7 @@
         <v>16.9</v>
       </c>
       <c r="H755" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="756">
@@ -21974,7 +21974,7 @@
         <v>16.4</v>
       </c>
       <c r="H756" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="757">
@@ -22002,7 +22002,7 @@
         <v>16.5</v>
       </c>
       <c r="H757" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="758">
@@ -22030,7 +22030,7 @@
         <v>14.5</v>
       </c>
       <c r="H758" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="759">
@@ -22058,7 +22058,7 @@
         <v>12.5</v>
       </c>
       <c r="H759" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="760">
@@ -22088,7 +22088,7 @@
         <v>14.26</v>
       </c>
       <c r="H760" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="761">
@@ -22118,7 +22118,7 @@
         <v>14</v>
       </c>
       <c r="H761" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="762">
@@ -22146,7 +22146,7 @@
         <v>23.68</v>
       </c>
       <c r="H762" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="763">
@@ -22174,7 +22174,7 @@
         <v>7</v>
       </c>
       <c r="H763" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="764">
@@ -22202,7 +22202,7 @@
         <v>7.15</v>
       </c>
       <c r="H764" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="765">
@@ -22230,7 +22230,7 @@
         <v>6.9</v>
       </c>
       <c r="H765" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="766">
@@ -22260,7 +22260,7 @@
         <v>6.6</v>
       </c>
       <c r="H766" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="767">
@@ -22290,7 +22290,7 @@
         <v>6.5</v>
       </c>
       <c r="H767" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="768">
@@ -22320,7 +22320,7 @@
         <v>6.58</v>
       </c>
       <c r="H768" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="769">
@@ -22350,7 +22350,7 @@
         <v>4.7</v>
       </c>
       <c r="H769" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="770">
@@ -22380,7 +22380,7 @@
         <v>4.6</v>
       </c>
       <c r="H770" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="771">
@@ -22410,7 +22410,7 @@
         <v>4.6</v>
       </c>
       <c r="H771" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="772">
@@ -22438,7 +22438,7 @@
         <v>15</v>
       </c>
       <c r="H772" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="773">
@@ -22466,7 +22466,7 @@
         <v>14</v>
       </c>
       <c r="H773" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="774">
@@ -22494,7 +22494,7 @@
         <v>15</v>
       </c>
       <c r="H774" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="775">
@@ -22522,7 +22522,7 @@
         <v>15</v>
       </c>
       <c r="H775" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="776">
@@ -22550,7 +22550,7 @@
         <v>6</v>
       </c>
       <c r="H776" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="777">
@@ -22578,7 +22578,7 @@
         <v>4.25</v>
       </c>
       <c r="H777" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="778">
@@ -22606,7 +22606,7 @@
         <v>13.4</v>
       </c>
       <c r="H778" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="779">
@@ -22634,7 +22634,7 @@
         <v>12.9</v>
       </c>
       <c r="H779" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="780">
@@ -22662,7 +22662,7 @@
         <v>12.7</v>
       </c>
       <c r="H780" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="781">
@@ -22690,7 +22690,7 @@
         <v>9.5</v>
       </c>
       <c r="H781" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="782">
@@ -22718,7 +22718,7 @@
         <v>3.3</v>
       </c>
       <c r="H782" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="783">
@@ -22746,7 +22746,7 @@
         <v>3.1</v>
       </c>
       <c r="H783" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="784">
@@ -22774,7 +22774,7 @@
         <v>4.2</v>
       </c>
       <c r="H784" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="785">
@@ -22802,7 +22802,7 @@
         <v>17</v>
       </c>
       <c r="H785" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="786">
@@ -22830,7 +22830,7 @@
         <v>8</v>
       </c>
       <c r="H786" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="787">
@@ -22858,7 +22858,7 @@
         <v>6.5</v>
       </c>
       <c r="H787" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="788">
@@ -22886,7 +22886,7 @@
         <v>6.25</v>
       </c>
       <c r="H788" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="789">
@@ -22914,7 +22914,7 @@
         <v>6.25</v>
       </c>
       <c r="H789" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
     <row r="790">
@@ -22942,7 +22942,7 @@
         <v>6</v>
       </c>
       <c r="H790" s="2" t="n">
-        <v>45653</v>
+        <v>45653.61413775036</v>
       </c>
     </row>
   </sheetData>
